--- a/data/siRNA_bench/Invivogen_siRNA_KIT_jbst.xlsx
+++ b/data/siRNA_bench/Invivogen_siRNA_KIT_jbst.xlsx
@@ -571,11 +571,11 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>['AGTACT', 'GTAC']</t>
+          <t>[('AGT', 'TCA')]</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -594,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>28.81</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="3">
@@ -671,7 +671,7 @@
         <v>10</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.29</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="4">
@@ -748,7 +748,7 @@
         <v>8</v>
       </c>
       <c r="Q4" t="n">
-        <v>22.29</v>
+        <v>52.38</v>
       </c>
     </row>
     <row r="5">
@@ -825,18 +825,18 @@
         <v>6</v>
       </c>
       <c r="Q5" t="n">
-        <v>10.76</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RNAi_9</t>
+          <t>RNAi_11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATCTCTTTCTATGTATGAGCC</t>
+          <t>TTGTAGAACTTAGAATCGACC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['ATCTCTTTCTATGTATGAGCC']</t>
+          <t>['TTGTAGAACTTAGAATCGACC']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>GGCTCATACATAGAAAGAGAT</t>
+          <t>GGTCGATTCTAAGTTCTACAA</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -899,21 +899,21 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>19.29</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RNAi_10</t>
+          <t>RNAi_6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATTCTTGGAGGCGAGGAAAGC</t>
+          <t>TTTACAGCGACAGTCATGGCC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['ATTCTTGGAGGCGAGGAAAGC']</t>
+          <t>['TTTACAGCGACAGTCATGGCC']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -956,15 +956,15 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('GAC', 'CTG')]</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>GCTTTCCTCGCCTCCAAGAAT</t>
+          <t>GGCCATGACTGTCGCTGTAAA</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -976,21 +976,21 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.1</v>
+        <v>52.38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RNAi_5</t>
+          <t>RNAi_9</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TATTTGTAGGTCAGAATCATC</t>
+          <t>ATCTCTTTCTATGTATGAGCC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['TATTTGTAGGTCAGAATCATC']</t>
+          <t>['ATCTCTTTCTATGTATGAGCC']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1033,15 +1033,15 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[('CTC', 'GAG')]</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>GATGATTCTGACCTACAAATA</t>
+          <t>GGCTCATACATAGAAAGAGAT</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1053,21 +1053,21 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q8" t="n">
-        <v>22.05</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RNAi_7</t>
+          <t>RNAi_5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TTTGAGTTCAGACATGAGGGC</t>
+          <t>TATTTGTAGGTCAGAATCATC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['TTTGAGTTCAGACATGAGGGC']</t>
+          <t>['TATTTGTAGGTCAGAATCATC']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1110,15 +1110,15 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>['CATG']</t>
+          <t>[('ATT', 'TAA')]</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>GCCCTCATGTCTGAACTCAAA</t>
+          <t>GATGATTCTGACCTACAAATA</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1130,21 +1130,21 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>36.33</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RNAi_11</t>
+          <t>RNAi_7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TTGTAGAACTTAGAATCGACC</t>
+          <t>TTTGAGTTCAGACATGAGGGC</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['TTGTAGAACTTAGAATCGACC']</t>
+          <t>['TTTGAGTTCAGACATGAGGGC']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>['TCGA']</t>
+          <t>[('TCA', 'AGT'), ('TGA', 'ACT')]</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>GGTCGATTCTAAGTTCTACAA</t>
+          <t>GCCCTCATGTCTGAACTCAAA</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1207,21 +1207,21 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q10" t="n">
-        <v>23.05</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RNAi_4</t>
+          <t>RNAi_13</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATAGATCCACTGCTGGTGTTC</t>
+          <t>ATAACAGAGTGCCTTAAGTGC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['ATAGATCCACTGCTGGTGTTC']</t>
+          <t>['ATAACAGAGTGCCTTAAGTGC']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>['GATC']</t>
+          <t>[('TAA', 'ATT'), ('CTT', 'GAA')]</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>GAACACCAGCAGTGGATCTAT</t>
+          <t>GCACTTAAGGCACTCTGTTAT</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1284,21 +1284,21 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q11" t="n">
-        <v>28.81</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RNAi_6</t>
+          <t>RNAi_10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TTTACAGCGACAGTCATGGCC</t>
+          <t>ATTCTTGGAGGCGAGGAAAGC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['TTTACAGCGACAGTCATGGCC']</t>
+          <t>['ATTCTTGGAGGCGAGGAAAGC']</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1341,15 +1341,15 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>['CATG', 'GGCC']</t>
+          <t>[('CTT', 'GAA'), ('TTC', 'AAG')]</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>GGCCATGACTGTCGCTGTAAA</t>
+          <t>GCTTTCCTCGCCTCCAAGAAT</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1361,21 +1361,21 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.81</v>
+        <v>52.38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RNAi_13</t>
+          <t>RNAi_4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ATAACAGAGTGCCTTAAGTGC</t>
+          <t>ATAGATCCACTGCTGGTGTTC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['ATAACAGAGTGCCTTAAGTGC']</t>
+          <t>['ATAGATCCACTGCTGGTGTTC']</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1418,15 +1418,15 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>['CTTAAG', 'TTAA']</t>
+          <t>[('CCA', 'GGT'), ('CAC', 'GTG')]</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>GCACTTAAGGCACTCTGTTAT</t>
+          <t>GAACACCAGCAGTGGATCTAT</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.81</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="14">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>['TCTAGA', 'AGCT', 'CTAG']</t>
+          <t>[('GTA', 'CAT'), ('TCT', 'AGA'), ('CTA', 'GAT'), ('GCT', 'CGA')]</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>28.81</v>
+        <v>47.62</v>
       </c>
     </row>
   </sheetData>
